--- a/Sample Document Test Room.xlsx
+++ b/Sample Document Test Room.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Word\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\web-room\back-end\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243DF293-4F34-4E8D-B67A-6F3B441AAC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BADD05D-4487-494E-83D8-998E0BDAADAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{74C7CF61-46DF-4C34-85EE-426497EC5C25}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{74C7CF61-46DF-4C34-85EE-426497EC5C25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="163">
   <si>
     <t>Câu hỏi</t>
   </si>
@@ -90,6 +90,447 @@
   </si>
   <si>
     <t xml:space="preserve"> Diễn đạt thuật toán để có thể giao cho máy tính thực hiện</t>
+  </si>
+  <si>
+    <t>Hệ thống nhớ của máy tính bao gồm:</t>
+  </si>
+  <si>
+    <t>Trong mạng máy tính, thuật ngữ Share có ý nghĩa gì?</t>
+  </si>
+  <si>
+    <t> Cho biết cách xóa một tập tin hay thư mục mà không di chuyển vào Recycle Bin:?</t>
+  </si>
+  <si>
+    <t> Các thiết bị nào thông dụng nhất hiện nay dùng để cung cấp dữ liệu cho máy xử lý?</t>
+  </si>
+  <si>
+    <t> Khái niệm hệ điều hành là gì ?</t>
+  </si>
+  <si>
+    <t>Trong soạn thảo Word, để kết thúc 1 đoạn (Paragraph) và muốn sang 1 đoạn mới :</t>
+  </si>
+  <si>
+    <t> Bộ nhớ RAM và ROM là bộ nhớ gì?</t>
+  </si>
+  <si>
+    <t>Thiết bị nào sau đây dùng để kết nối mạng?</t>
+  </si>
+  <si>
+    <t>Dịch vụ lưu trữ đám mây của Microsoft là gì?</t>
+  </si>
+  <si>
+    <t>Danh sách các mục chọn trong thực đơn gọi là :</t>
+  </si>
+  <si>
+    <t>Công dụng của phím Print Screen là gì?</t>
+  </si>
+  <si>
+    <t>Trong soạn thảo Word, công dụng của tổ hợp phím Ctrl – S là:</t>
+  </si>
+  <si>
+    <t>Trong soạn thảo Word, tổ hợp phím nào cho phép đưa con trỏ về cuối văn bản :</t>
+  </si>
+  <si>
+    <t>Trong soạn thảo Word, để chèn các kí tự đặc biệt vào văn bản, ta thực hiện:</t>
+  </si>
+  <si>
+    <t>Nếu bạn muốn làm cho cửa sổ nhỏ hơn (không kín màn hình), bạn nên sử dụng nút nào?</t>
+  </si>
+  <si>
+    <t>Trong soạn thảo Word, muốn tách một ô trong Table thành nhiều ô, ta thực hiện:</t>
+  </si>
+  <si>
+    <t> Trong soạn thảo Word, sử dụng phím nóng nào để chọn tất cả văn bản:</t>
+  </si>
+  <si>
+    <t>Trong soạn thảo Word, muốn đánh dấu lựa chọn một từ, ta thực hiện :</t>
+  </si>
+  <si>
+    <t>Trong bảng tính Excel, cho các giá trị như sau: ô A4 = 4, ô A2 = 5, ô A3 = 6, ô A7 = 7 tại vị trí ô B2 lập công thức B2 = Sum(A4,A2,Count(A3,A4)) cho biết kết quả ô B2 sau khi Enter:</t>
+  </si>
+  <si>
+    <t>Người đọc biết tập tin đang mở là phiên bản cuối cùng và chỉ cho phép đọc, bạn chọn?</t>
+  </si>
+  <si>
+    <t>Thuộc tính phần mềm microsoft word 2010 có phần mở rộng là gì? ( Cho phép chọn nhiều)</t>
+  </si>
+  <si>
+    <t>Câu nào sau đây sai khi nhập dữ liệu vào bảng tính Excel thì:</t>
+  </si>
+  <si>
+    <t>Trong soạn thảo Word, thao tác nào sau đây sẽ kích hoạt lệnh Paste (Chọn nhiều đáp án)</t>
+  </si>
+  <si>
+    <t>Phần mềm nào có thể soạn thảo văn bản với nội dung và định dạng như sau:
+” Công cha như núi Thái Sơn
+Nghĩa mẹ như nước trong nguồn chảy ra.
+Một lòng thờ mẹ kính cha,
+Cho tròn chữ hiếu mới là đạo con.”</t>
+  </si>
+  <si>
+    <t>Trong bảng tính Excel, để lưu tập tin đang mở dưới một tên khác, ta chọn:</t>
+  </si>
+  <si>
+    <t>Trong bảng tính Excel, ô A1 chứa nội dung “TTTH ĐHKHTN”. Khi thực hiện công thức = LEN(A1)
+thì giá trị trả về kết quả:</t>
+  </si>
+  <si>
+    <t>Trong bảng tính Excel, tại ô A2 có giá trị số 25; Tại ô B2 gõ vào công thức =SQRT(A2) thì nhận được kết quả:</t>
+  </si>
+  <si>
+    <t>Trong soạn thảo Word, để chọn một đoạn văn bản ta thực hiện:</t>
+  </si>
+  <si>
+    <t>Trong bảng tính Excel, ô A1 chứa giá trị 7.5. Ta lập công thức tại ô B1 có nội dung như sau
+=IF(A1&gt;=5, “Trung Bình”, IF(A1&gt;=7, “Khá”, IF(A1&gt;=8, “Giỏi”, “Xuất sắc”))) khi đó kết quả nhận được là:</t>
+  </si>
+  <si>
+    <t>Trong bảng tính Excel, hàm nào dùng để tìm kiếm:</t>
+  </si>
+  <si>
+    <t>Bộ nhớ trong, Bộ nhớ ngoài</t>
+  </si>
+  <si>
+    <t>Cache, Bộ nhớ ngoài</t>
+  </si>
+  <si>
+    <t>Bộ nhớ ngoài, ROM</t>
+  </si>
+  <si>
+    <t>Đĩa quang, Bộ nhớ trong</t>
+  </si>
+  <si>
+    <t>Chia sẻ tài nguyên</t>
+  </si>
+  <si>
+    <t>Nhãn hiệu của một thiết bị kết nối mạng</t>
+  </si>
+  <si>
+    <t>Thực hiện lệnh in trong mạng cục bộ</t>
+  </si>
+  <si>
+    <t>Một phần mềm hỗ trợ sử dụng mạng cục bộ</t>
+  </si>
+  <si>
+    <t>Chọn thư mục hay tâp tin cần xóa -&gt; Delete</t>
+  </si>
+  <si>
+    <t>Chọn thư mục hay tâp tin cần xóa -&gt; Ctrl + Delete</t>
+  </si>
+  <si>
+    <t>Chọn thư mục hay tâp tin cần xóa -&gt; Alt + Delete</t>
+  </si>
+  <si>
+    <t>Chọn thư mục hay tâp tin cần xóa -&gt; Shift + Delete</t>
+  </si>
+  <si>
+    <t>Bàn phím (Keyboard), Chuột (Mouse), Máy in (Printer) b) Máy quét ảnh (Scaner).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bàn phím (Keyboard), Chuột (Mouse) và Máy quét ảnh (Scaner).</t>
+  </si>
+  <si>
+    <t>Máy quét ảnh (Scaner), Chuột (Mouse)</t>
+  </si>
+  <si>
+    <t>Cung cấp và xử lý các phần cứng và phần mềm</t>
+  </si>
+  <si>
+    <t>Nghiên cứu phương pháp, kỹ thuật xử lý thông tin bằng máy tính điện tử</t>
+  </si>
+  <si>
+    <t>Nghiên cứu về công nghệ phần cứng và phần mềm</t>
+  </si>
+  <si>
+    <t>Là một phần mềm chạy trên máy tính, dùng để điều hành, quản lý các thiết bị phần cứng và các tài nguyên phần mềm trên máy tính</t>
+  </si>
+  <si>
+    <t>Bấm tổ hợp phím Ctrl – Enter</t>
+  </si>
+  <si>
+    <t>Bấm phím Enter</t>
+  </si>
+  <si>
+    <t>Bấm tổ hợp phím Shift – Enter</t>
+  </si>
+  <si>
+    <t>Word tự động, không cần bấm phím</t>
+  </si>
+  <si>
+    <t>Primary memory</t>
+  </si>
+  <si>
+    <t>Receive memory</t>
+  </si>
+  <si>
+    <t>Secondary memory</t>
+  </si>
+  <si>
+    <t>Random access memory.</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Rom</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>Google Driver</t>
+  </si>
+  <si>
+    <t>Mediafire</t>
+  </si>
+  <si>
+    <t>OneDrive</t>
+  </si>
+  <si>
+    <t>Cả 3 câu hỏi trên đều đúng.</t>
+  </si>
+  <si>
+    <t>Menu pad</t>
+  </si>
+  <si>
+    <t>Menu options</t>
+  </si>
+  <si>
+    <t>Menu bar</t>
+  </si>
+  <si>
+    <t>Tất cả đều sai</t>
+  </si>
+  <si>
+    <t>In màn hình hiện hành ra máy in</t>
+  </si>
+  <si>
+    <t>Không có công dụng gì khi sử dụng 1 mình nó.</t>
+  </si>
+  <si>
+    <t>In văn bản hiện hành ra máy in</t>
+  </si>
+  <si>
+    <t>Chụp màn hình hiện hành</t>
+  </si>
+  <si>
+    <t>Tạo một văn bản mới</t>
+  </si>
+  <si>
+    <t>Chức năng thay thế nội dung trong soạn thảo</t>
+  </si>
+  <si>
+    <t>Định dạng chữ hoa</t>
+  </si>
+  <si>
+    <t>Lưu nội dung tập tin văn bản vào đĩa</t>
+  </si>
+  <si>
+    <t>Shift + End</t>
+  </si>
+  <si>
+    <t>Alt + End</t>
+  </si>
+  <si>
+    <t>Ctrl + End</t>
+  </si>
+  <si>
+    <t>Ctrl + Alt + End</t>
+  </si>
+  <si>
+    <t>View – Symbol</t>
+  </si>
+  <si>
+    <t>Format – Symbol</t>
+  </si>
+  <si>
+    <t>Tools – Symbol</t>
+  </si>
+  <si>
+    <t>Insert – Symbol</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Restore down</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Table – Merge Cells</t>
+  </si>
+  <si>
+    <t>Table – Split Cells</t>
+  </si>
+  <si>
+    <t>Tools – Split Cells</t>
+  </si>
+  <si>
+    <t>Table – Cells</t>
+  </si>
+  <si>
+    <t>Alt + A</t>
+  </si>
+  <si>
+    <t>Ctrl + A</t>
+  </si>
+  <si>
+    <t>Ctrl + Shift + A</t>
+  </si>
+  <si>
+    <t>Câu 1 và 2</t>
+  </si>
+  <si>
+    <t>Nháy đúp chuột vào từ cần chọn</t>
+  </si>
+  <si>
+    <t>Bấm tổ hợp phím Ctrl – C</t>
+  </si>
+  <si>
+    <t>Nháy chuột vào từ cần chọn</t>
+  </si>
+  <si>
+    <t>Lỗi</t>
+  </si>
+  <si>
+    <t>File -&gt; info -&gt; Protect Document -&gt; Restrict Editing</t>
+  </si>
+  <si>
+    <t>Review -&gt;Restrict Editing -&gt; Editing restrictions -&gt; No changes (Read only)</t>
+  </si>
+  <si>
+    <t>File -&gt; info -&gt; Protect Document -&gt; Mark as Final</t>
+  </si>
+  <si>
+    <t>File -&gt; info -&gt; Protect Document -&gt; Encrypt as Password</t>
+  </si>
+  <si>
+    <t>.doc</t>
+  </si>
+  <si>
+    <t>.docx</t>
+  </si>
+  <si>
+    <t>.dot</t>
+  </si>
+  <si>
+    <t>.txt</t>
+  </si>
+  <si>
+    <t>Dữ liệu kiểu số sẽ mặc nhiên canh thẳng lề trái</t>
+  </si>
+  <si>
+    <t>Dữ liệu kiểu ký tự sẽ mặc nhiên canh thẳng lề trái</t>
+  </si>
+  <si>
+    <t>Dữ liệu kiểu thời gian sẽ mặc nhiên canh thẳng lề phải</t>
+  </si>
+  <si>
+    <t>Dữ liệu kiểu ngày tháng sẽ mặc nhiên canh thẳng lề phải.</t>
+  </si>
+  <si>
+    <t>Tại thẻ Home, nhóm Clipboard, chọn Paste</t>
+  </si>
+  <si>
+    <t>Bấm tổ hợp phím Ctrl + V.</t>
+  </si>
+  <si>
+    <t>Chọn vào mục trong Office Clipboar</t>
+  </si>
+  <si>
+    <t>Tất cả đều đúng</t>
+  </si>
+  <si>
+    <t>Notepad</t>
+  </si>
+  <si>
+    <t>Microsoft Word</t>
+  </si>
+  <si>
+    <t>WordPad</t>
+  </si>
+  <si>
+    <t>File / Save As</t>
+  </si>
+  <si>
+    <t>File / Save</t>
+  </si>
+  <si>
+    <t>File / New</t>
+  </si>
+  <si>
+    <t>Edit / Replace</t>
+  </si>
+  <si>
+    <t>#NAME!</t>
+  </si>
+  <si>
+    <t>Click 1 lần trên đoạn</t>
+  </si>
+  <si>
+    <t>Click 2 lần trên đoạn</t>
+  </si>
+  <si>
+    <t>Click 3 lần trên đoạn</t>
+  </si>
+  <si>
+    <t>Click 4 lần trên đoạn</t>
+  </si>
+  <si>
+    <t>Giỏi.</t>
+  </si>
+  <si>
+    <t>Xuất sắc.</t>
+  </si>
+  <si>
+    <t>Trung Bình</t>
+  </si>
+  <si>
+    <t>Khá</t>
+  </si>
+  <si>
+    <t>Vlookup</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Mười một</t>
+  </si>
+  <si>
+    <t>Mười</t>
+  </si>
+  <si>
+    <t>Chín</t>
+  </si>
+  <si>
+    <t>#VALUE!</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -105,21 +546,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -150,19 +589,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -181,9 +632,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -221,7 +672,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -327,7 +778,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -469,7 +920,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -477,165 +928,1091 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664D622D-925C-43C7-BB60-F4AF04F33765}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="61" customWidth="1"/>
-    <col min="2" max="2" width="53.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
-    <col min="4" max="4" width="39.85546875" customWidth="1"/>
-    <col min="5" max="6" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="53.26171875" customWidth="1"/>
+    <col min="3" max="3" width="30.15625" customWidth="1"/>
+    <col min="4" max="4" width="39.83984375" customWidth="1"/>
+    <col min="5" max="6" width="31.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="8"/>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>3</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>4</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>5</v>
       </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
         <v>2</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="4">
         <v>3</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="4">
         <v>4</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" ht="70.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" ht="42.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" ht="56.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -644,5 +2021,6 @@
     <mergeCell ref="G1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>